--- a/biology/Botanique/Geastrales/Geastrales.xlsx
+++ b/biology/Botanique/Geastrales/Geastrales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Geastrales sont un ordre de champignons de la sous-classe des Phallomycetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (18 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 janvier 2023) :
 Geastraceae Corda, 1842
 Sphaerobolaceae J. Schröt., 1889</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Geastrales a été créé en 2006 par Kentaro Hosaka (d) et Michael A. Castellano (d)[1] avec pour famille type Geastraceae et dans une publication coécrite avec onze autres biologistes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Geastrales a été créé en 2006 par Kentaro Hosaka (d) et Michael A. Castellano (d) avec pour famille type Geastraceae et dans une publication coécrite avec onze autres biologistes.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Kentaro Hosaka, Scott T. Bates, Ross E. Beever, Michael A. Castellano, Wesley Colgan, Laura S. Domínguez, Eduardo R. Nouhra, József Geml, Admir J. Giachini, S. Ray Kenney, Nicholas B. Simpson, Joseph W. Spatafora et James M. Trappe, « Molecular phylogenetics of the gomphoid-phalloid fungi with an establishment of the new subclass Phallomycetidae and two new orders », Mycologia, Mycological Society of America (d), NYBG et Taylor &amp; Francis, vol. 98, no 6,‎ 2006, p. 949-959 (ISSN 0027-5514 et 1557-2536, OCLC 1640733, PMID 17486971, DOI 10.1080/15572536.2006.11832624, lire en ligne)</t>
         </is>
